--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3793.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3793.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.037144641264004</v>
+        <v>0.9593005776405334</v>
       </c>
       <c r="B1">
-        <v>2.262771317399569</v>
+        <v>4.524675369262695</v>
       </c>
       <c r="C1">
-        <v>2.38789093123852</v>
+        <v>4.172035217285156</v>
       </c>
       <c r="D1">
-        <v>3.153579500073984</v>
+        <v>2.453616142272949</v>
       </c>
       <c r="E1">
-        <v>2.958048534501283</v>
+        <v>2.04694390296936</v>
       </c>
     </row>
   </sheetData>
